--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_gene_ranking.xlsx
@@ -2136,7 +2136,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Cybb</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Chdh</t>
+          <t>Nckap5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cybb</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Nckap5</t>
+          <t>Chdh</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>D16Ertd472e</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>D16Ertd472e</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Gm10851</t>
+          <t>Grn</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Grn</t>
+          <t>Gm10851</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Cacna1e</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Cacna1e</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -6266,12 +6266,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Ikzf2</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>B4galt6</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>B4galt6</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Slc24a1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Serpinb9</t>
+          <t>Slc24a1</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Srgap3</t>
+          <t>Foxo1</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mmp12</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sorbs1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Mmp11</t>
+          <t>Srgap3</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Tox</t>
+          <t>Sorbs1</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Foxo1</t>
+          <t>Mmp11</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Grn</t>
+          <t>Mmp11</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Foxo1</t>
+          <t>Themis</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ccr7</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7541,12 +7541,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Mmp11</t>
+          <t>Grn</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Themis</t>
+          <t>Foxo1</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Mctp2</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Mctp2</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Ky</t>
+          <t>Il1r2</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Ky</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ptpn13</t>
+          <t>Serpinb1a</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Ugcg</t>
+          <t>Ptpn13</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ky</t>
+          <t>Ugcg</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Ky</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Gata3</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Serpinb1a</t>
+          <t>Gata3</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -8901,12 +8901,12 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Ifi207</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Olfr164</t>
+          <t>Irak2</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Irak2</t>
+          <t>Olfr164</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Pltp</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cxcl16</t>
+          <t>Pltp</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cd200r1</t>
+          <t>Cxcl16</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Cd200r1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Eps8</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Csf2rb2</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Eps8</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fancc</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Myo1e</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Fancc</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Mrc1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ipmk</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Tnip3</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Clnk</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Stxbp6</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -10621,24 +10621,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>Malat1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Clnk</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Apoe</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Diaph3</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Clnk</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>Cxcr6</t>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Stxbp6</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Diaph3</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cadm1</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Stxbp6</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Ptgs2</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -10861,12 +10861,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Stxbp6</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_gene_ranking.xlsx
@@ -2136,7 +2136,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cybb</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Nckap5</t>
+          <t>Chdh</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Cybb</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Chdh</t>
+          <t>Nckap5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>D16Ertd472e</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>D16Ertd472e</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Il12rb2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ptgs2</t>
+          <t>Il12rb2</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Grn</t>
+          <t>Gm10851</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Gm10851</t>
+          <t>Grn</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Cacna1e</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Ikzf2</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Cacna1e</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -6266,12 +6266,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>B4galt6</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>B4galt6</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Slc24a1</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Slc24a1</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Serpinb9</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mmp12</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Foxo1</t>
+          <t>Srgap3</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Tox</t>
+          <t>Sorbs1</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Srgap3</t>
+          <t>Mmp11</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -7096,14 +7096,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>Tox</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>Sorbs1</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Sorbs1</t>
-        </is>
-      </c>
       <c r="M64" t="inlineStr">
         <is>
           <t>Ipmk</t>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Mmp11</t>
+          <t>Foxo1</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Mmp11</t>
+          <t>Grn</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Themis</t>
+          <t>Foxo1</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7541,12 +7541,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Grn</t>
+          <t>Mmp11</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Foxo1</t>
+          <t>Themis</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Ccr7</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Mctp2</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Mctp2</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Ky</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Ky</t>
+          <t>Il1r2</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Serpinb1a</t>
+          <t>Ptpn13</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Ptpn13</t>
+          <t>Ugcg</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ugcg</t>
+          <t>Ky</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Ky</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Gata3</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8866,24 +8866,24 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
+          <t>Serpinb1a</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Icos</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
           <t>Gata3</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Itga4</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Icos</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Gata3</t>
-        </is>
-      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>Ret</t>
@@ -8901,12 +8901,12 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Irak2</t>
+          <t>Olfr164</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Ifi207</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Olfr164</t>
+          <t>Irak2</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Pltp</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pltp</t>
+          <t>Cxcl16</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cxcl16</t>
+          <t>Cd200r1</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cd200r1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Eps8</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Myo1e</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Eps8</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Fancc</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Csf2rb2</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fancc</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Mrc1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Jdp2</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ipmk</t>
+          <t>Jdp2</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Ptgs2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Clnk</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Stxbp6</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Tnip3</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Clnk</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Stxbp6</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Stxbp6</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Diaph3</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -10861,12 +10861,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Cadm1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Stxbp6</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
